--- a/data/pca/factorExposure/factorExposure_2019-02-28.xlsx
+++ b/data/pca/factorExposure/factorExposure_2019-02-28.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,12 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +729,103 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>-0.1196272631492188</v>
+        <v>-0.07265372713910674</v>
       </c>
       <c r="C2">
-        <v>0.01519718023548485</v>
+        <v>0.03116405745074127</v>
       </c>
       <c r="D2">
-        <v>0.05147703654417848</v>
+        <v>0.02195497354784992</v>
       </c>
       <c r="E2">
-        <v>-0.1241648202972701</v>
+        <v>0.0426518335126877</v>
       </c>
       <c r="F2">
-        <v>-0.08272054621816891</v>
+        <v>0.1398982469879889</v>
       </c>
       <c r="G2">
-        <v>-0.08084309029721229</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.1073030823468527</v>
+      </c>
+      <c r="H2">
+        <v>-0.05920611945141033</v>
+      </c>
+      <c r="I2">
+        <v>-0.04071008077720846</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>-0.212350105757768</v>
+        <v>-0.1638676245829833</v>
       </c>
       <c r="C3">
-        <v>0.1605469397216344</v>
+        <v>0.1098050862065839</v>
       </c>
       <c r="D3">
-        <v>-0.03081657260251162</v>
+        <v>-0.004708468340489192</v>
       </c>
       <c r="E3">
-        <v>-0.3262217131218164</v>
+        <v>-0.000490683993924965</v>
       </c>
       <c r="F3">
-        <v>0.02804507699575145</v>
+        <v>0.3685213425901013</v>
       </c>
       <c r="G3">
-        <v>-0.08974674008180888</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>-0.0938615524790623</v>
+      </c>
+      <c r="H3">
+        <v>-0.277577532039935</v>
+      </c>
+      <c r="I3">
+        <v>-0.2234466369458501</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>-0.09563074291024627</v>
+        <v>-0.07273425069426366</v>
       </c>
       <c r="C4">
-        <v>0.04896680934238939</v>
+        <v>0.04885808610839323</v>
       </c>
       <c r="D4">
-        <v>0.02723252258739896</v>
+        <v>-0.0140957627164462</v>
       </c>
       <c r="E4">
-        <v>-0.07063983028377434</v>
+        <v>0.04142448855541621</v>
       </c>
       <c r="F4">
-        <v>-0.01182996603978077</v>
+        <v>0.08008901655993615</v>
       </c>
       <c r="G4">
-        <v>-0.03963632299450232</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-0.04444410021073051</v>
+      </c>
+      <c r="H4">
+        <v>-0.0237762083990156</v>
+      </c>
+      <c r="I4">
+        <v>-0.03382275899638959</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +845,277 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>-0.01848660005279531</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.01279035836350415</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>-0.005610716015151979</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.006328754913874698</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>0.004251551876633797</v>
       </c>
       <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.02110450926283841</v>
+      </c>
+      <c r="H6">
+        <v>0.0004668633286591762</v>
+      </c>
+      <c r="I6">
+        <v>0.01572098954775524</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>-0.04156353667259826</v>
+        <v>-0.03406478048748837</v>
       </c>
       <c r="C7">
-        <v>0.01435278752855947</v>
+        <v>0.01673176235944364</v>
       </c>
       <c r="D7">
-        <v>0.03570908139948237</v>
+        <v>-0.03597852573452445</v>
       </c>
       <c r="E7">
-        <v>-0.07448165425210251</v>
+        <v>0.02954906931697023</v>
       </c>
       <c r="F7">
-        <v>0.04781077257251558</v>
+        <v>0.05350626738811157</v>
       </c>
       <c r="G7">
-        <v>0.02764780427221861</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.006131813667063736</v>
+      </c>
+      <c r="H7">
+        <v>-0.04516840583198092</v>
+      </c>
+      <c r="I7">
+        <v>-0.004755892508356244</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>-0.04338847107823805</v>
+        <v>-0.02903374230419378</v>
       </c>
       <c r="C8">
-        <v>0.05709487703170866</v>
+        <v>0.051242605281617</v>
       </c>
       <c r="D8">
-        <v>0.006365309007565618</v>
+        <v>-0.01292939699327</v>
       </c>
       <c r="E8">
-        <v>-0.07097734835986141</v>
+        <v>0.02154010571879634</v>
       </c>
       <c r="F8">
-        <v>0.00448184793349271</v>
+        <v>0.06995661422187265</v>
       </c>
       <c r="G8">
-        <v>-0.01584867507418234</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>-0.02009434463567565</v>
+      </c>
+      <c r="H8">
+        <v>-0.04289209750393262</v>
+      </c>
+      <c r="I8">
+        <v>-0.04051168038756695</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>-0.08400379254142619</v>
+        <v>-0.06095637160880508</v>
       </c>
       <c r="C9">
-        <v>0.04283550281224643</v>
+        <v>0.04300732783489286</v>
       </c>
       <c r="D9">
-        <v>0.0331987649012133</v>
+        <v>-0.01788169066960549</v>
       </c>
       <c r="E9">
-        <v>-0.05651995278351533</v>
+        <v>0.03619231523537152</v>
       </c>
       <c r="F9">
-        <v>0.003515722856358195</v>
+        <v>0.07971429265531825</v>
       </c>
       <c r="G9">
-        <v>-0.04702502107483664</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-0.0415767551179627</v>
+      </c>
+      <c r="H9">
+        <v>-0.02297723909545582</v>
+      </c>
+      <c r="I9">
+        <v>-0.01623582278955234</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>-0.01947368400250203</v>
+        <v>-0.03410483004805681</v>
       </c>
       <c r="C10">
-        <v>-0.1597596752099362</v>
+        <v>-0.152814771368913</v>
       </c>
       <c r="D10">
-        <v>-0.03520702679317953</v>
+        <v>0.008879928094467705</v>
       </c>
       <c r="E10">
-        <v>-0.07154568451649156</v>
+        <v>-0.03978892014994637</v>
       </c>
       <c r="F10">
-        <v>-0.01586048207096865</v>
+        <v>0.06931935469690523</v>
       </c>
       <c r="G10">
-        <v>0.002085598904885412</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-0.02396343176346177</v>
+      </c>
+      <c r="H10">
+        <v>-0.003438430243671276</v>
+      </c>
+      <c r="I10">
+        <v>-0.1087235944465875</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>-0.05844524861578863</v>
+        <v>-0.04883032741617614</v>
       </c>
       <c r="C11">
-        <v>0.01706888830885963</v>
+        <v>0.03153277540622155</v>
       </c>
       <c r="D11">
-        <v>-0.005493971761974597</v>
+        <v>0.00617740517646827</v>
       </c>
       <c r="E11">
-        <v>-0.0435132733103403</v>
+        <v>0.01001884704660536</v>
       </c>
       <c r="F11">
-        <v>-0.00798990117791464</v>
+        <v>0.04004205241032806</v>
       </c>
       <c r="G11">
-        <v>0.008571093547689384</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-0.006455934334671561</v>
+      </c>
+      <c r="H11">
+        <v>-0.00126172022272236</v>
+      </c>
+      <c r="I11">
+        <v>0.008775920834056235</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>-0.04500053802054168</v>
+        <v>-0.04570597208431265</v>
       </c>
       <c r="C12">
-        <v>0.02031171660480774</v>
+        <v>0.02836920386376779</v>
       </c>
       <c r="D12">
-        <v>-0.001311091443258115</v>
+        <v>-0.004741549094647485</v>
       </c>
       <c r="E12">
-        <v>-0.02941987614218099</v>
+        <v>0.01229492480154028</v>
       </c>
       <c r="F12">
-        <v>0.01085655337495185</v>
+        <v>0.01502210156169396</v>
       </c>
       <c r="G12">
-        <v>1.689364787732424e-05</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.002976636216441849</v>
+      </c>
+      <c r="H12">
+        <v>-0.003233594961569863</v>
+      </c>
+      <c r="I12">
+        <v>0.006384072262899726</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>-0.06229885747173523</v>
+        <v>-0.04125171462980769</v>
       </c>
       <c r="C13">
-        <v>0.03035140794094949</v>
+        <v>0.02786213518631843</v>
       </c>
       <c r="D13">
-        <v>-0.006413543928499433</v>
+        <v>0.01499529553179851</v>
       </c>
       <c r="E13">
-        <v>-0.1105678896555405</v>
+        <v>0.009911632005575209</v>
       </c>
       <c r="F13">
-        <v>-0.01099180196961968</v>
+        <v>0.1043045520134398</v>
       </c>
       <c r="G13">
-        <v>-0.0112225252758624</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>-0.02321190065927798</v>
+      </c>
+      <c r="H13">
+        <v>-0.04445612883838505</v>
+      </c>
+      <c r="I13">
+        <v>-0.01528821941914626</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>-0.03432474518385791</v>
+        <v>-0.02860157695246155</v>
       </c>
       <c r="C14">
-        <v>0.02236958040445165</v>
+        <v>0.01971270811360178</v>
       </c>
       <c r="D14">
-        <v>0.02758552322712379</v>
+        <v>-0.005059709049503994</v>
       </c>
       <c r="E14">
-        <v>-0.03014905111921856</v>
+        <v>0.02728910217713215</v>
       </c>
       <c r="F14">
-        <v>-0.01998055155532987</v>
+        <v>0.03901041433663271</v>
       </c>
       <c r="G14">
-        <v>0.01552242802859474</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>-0.02809046253802383</v>
+      </c>
+      <c r="H14">
+        <v>-0.05259783692204128</v>
+      </c>
+      <c r="I14">
+        <v>-0.009437794369665645</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1135,45 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>-0.04762947988855942</v>
+        <v>-0.04309322384610865</v>
       </c>
       <c r="C16">
-        <v>0.02990073285046164</v>
+        <v>0.03889907596704859</v>
       </c>
       <c r="D16">
-        <v>-0.009060822359624769</v>
+        <v>0.0001883401884780146</v>
       </c>
       <c r="E16">
-        <v>-0.03276960826106821</v>
+        <v>0.007216261702919118</v>
       </c>
       <c r="F16">
-        <v>0.007914036925999979</v>
+        <v>0.03367472371994527</v>
       </c>
       <c r="G16">
-        <v>0.009395545041227318</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.005924770416022355</v>
+      </c>
+      <c r="H16">
+        <v>-0.008276790151620882</v>
+      </c>
+      <c r="I16">
+        <v>0.007642120612247151</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1193,16 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1222,103 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>-0.05261913044811236</v>
+        <v>-0.04740465363934235</v>
       </c>
       <c r="C19">
-        <v>0.04766257093248671</v>
+        <v>0.04583434331290176</v>
       </c>
       <c r="D19">
-        <v>0.0003209011773416315</v>
+        <v>0.0009874371657518481</v>
       </c>
       <c r="E19">
-        <v>-0.07773326680082271</v>
+        <v>0.02212055681153194</v>
       </c>
       <c r="F19">
-        <v>0.006301924588428625</v>
+        <v>0.07926610195528457</v>
       </c>
       <c r="G19">
-        <v>0.0275098746835416</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>-0.01024693495156171</v>
+      </c>
+      <c r="H19">
+        <v>-0.08156588392729454</v>
+      </c>
+      <c r="I19">
+        <v>-0.03788615566713482</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>-0.03388493967380368</v>
+        <v>-0.01769240928735775</v>
       </c>
       <c r="C20">
-        <v>0.04391782992420703</v>
+        <v>0.02993477786098379</v>
       </c>
       <c r="D20">
-        <v>0.01212835700698317</v>
+        <v>-0.006962017364435804</v>
       </c>
       <c r="E20">
-        <v>-0.06592160074475589</v>
+        <v>0.02007752942947395</v>
       </c>
       <c r="F20">
-        <v>0.009567545987527813</v>
+        <v>0.06449630266369742</v>
       </c>
       <c r="G20">
-        <v>0.008822914086500599</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>-0.01362749111859175</v>
+      </c>
+      <c r="H20">
+        <v>-0.06919220150201794</v>
+      </c>
+      <c r="I20">
+        <v>-0.03052218377712755</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>-0.03668387114819598</v>
+        <v>-0.02777774978195368</v>
       </c>
       <c r="C21">
-        <v>0.03275337642706539</v>
+        <v>0.03081008272339463</v>
       </c>
       <c r="D21">
-        <v>2.029481681605234e-05</v>
+        <v>-0.01336986113008248</v>
       </c>
       <c r="E21">
-        <v>-0.1072433135257252</v>
+        <v>0.008737135341098018</v>
       </c>
       <c r="F21">
-        <v>-0.03705575354251045</v>
+        <v>0.07886692120691428</v>
       </c>
       <c r="G21">
-        <v>-0.02958778477179343</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.03559953586213159</v>
+      </c>
+      <c r="H21">
+        <v>-0.02816963358895479</v>
+      </c>
+      <c r="I21">
+        <v>0.01118308989650121</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1338,16 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1367,335 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>-0.05110210439279576</v>
+        <v>-0.04301704944628047</v>
       </c>
       <c r="C24">
-        <v>0.02523265808365495</v>
+        <v>0.02796881831215811</v>
       </c>
       <c r="D24">
-        <v>0.000217376808955601</v>
+        <v>0.0006247809460004618</v>
       </c>
       <c r="E24">
-        <v>-0.0452305379707162</v>
+        <v>0.01220593464032221</v>
       </c>
       <c r="F24">
-        <v>0.01094095294406062</v>
+        <v>0.04090630367458312</v>
       </c>
       <c r="G24">
-        <v>0.000587462580984174</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.005072785680467731</v>
+      </c>
+      <c r="H24">
+        <v>-0.007637752188531405</v>
+      </c>
+      <c r="I24">
+        <v>0.005462670800252833</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>-0.05277763048892484</v>
+        <v>-0.04603607125710468</v>
       </c>
       <c r="C25">
-        <v>0.01349308405405173</v>
+        <v>0.02668422996683798</v>
       </c>
       <c r="D25">
-        <v>-0.002431221013229398</v>
+        <v>0.001622085673932</v>
       </c>
       <c r="E25">
-        <v>-0.04168230980245338</v>
+        <v>0.00992288096097407</v>
       </c>
       <c r="F25">
-        <v>-0.005147461640605363</v>
+        <v>0.04401534225193649</v>
       </c>
       <c r="G25">
-        <v>-0.0004875549502716646</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>-0.004690168113378648</v>
+      </c>
+      <c r="H25">
+        <v>0.001005587104208213</v>
+      </c>
+      <c r="I25">
+        <v>0.0112047957558779</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>-0.02075721511573376</v>
+        <v>-0.0170915303026914</v>
       </c>
       <c r="C26">
-        <v>0.03077993590905684</v>
+        <v>0.02631611297411434</v>
       </c>
       <c r="D26">
-        <v>0.005169486327993682</v>
+        <v>0.004215168023385815</v>
       </c>
       <c r="E26">
-        <v>-0.03641889107414397</v>
+        <v>0.002185351751165953</v>
       </c>
       <c r="F26">
-        <v>-0.02811322491509697</v>
+        <v>0.04598597946112687</v>
       </c>
       <c r="G26">
-        <v>0.01331428952052744</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>-0.02277097215108623</v>
+      </c>
+      <c r="H26">
+        <v>-0.0337811905043259</v>
+      </c>
+      <c r="I26">
+        <v>0.005153498703074294</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B27">
-        <v>-0.1139422544697185</v>
+        <v>-0.0738790505495657</v>
       </c>
       <c r="C27">
-        <v>0.0376429413775429</v>
+        <v>0.03195767759679926</v>
       </c>
       <c r="D27">
-        <v>0.02530385101321406</v>
+        <v>-0.004888230802880015</v>
       </c>
       <c r="E27">
-        <v>-0.09481957021942131</v>
+        <v>0.03591649025295297</v>
       </c>
       <c r="F27">
-        <v>0.002406964430597054</v>
+        <v>0.06755994310689394</v>
       </c>
       <c r="G27">
-        <v>-0.01828078152957766</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>-0.01824174231099597</v>
+      </c>
+      <c r="H27">
+        <v>-0.01201142126832355</v>
+      </c>
+      <c r="I27">
+        <v>-0.02629787759224851</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>-0.01632853608555088</v>
+        <v>-0.05131283520364714</v>
       </c>
       <c r="C28">
-        <v>-0.2399006349618257</v>
+        <v>-0.2341994048220625</v>
       </c>
       <c r="D28">
-        <v>-0.03765206088757866</v>
+        <v>0.003435698840318108</v>
       </c>
       <c r="E28">
-        <v>-0.05070315381810733</v>
+        <v>-0.0591816053345719</v>
       </c>
       <c r="F28">
-        <v>-0.0307127703003069</v>
+        <v>0.06080699026373206</v>
       </c>
       <c r="G28">
-        <v>-0.01410717498788246</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-0.0243738247295035</v>
+      </c>
+      <c r="H28">
+        <v>0.001919076736658731</v>
+      </c>
+      <c r="I28">
+        <v>-0.1606083554347297</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>-0.023822944738936</v>
+        <v>-0.02406865080895281</v>
       </c>
       <c r="C29">
-        <v>0.02584365344743298</v>
+        <v>0.01879446347654033</v>
       </c>
       <c r="D29">
-        <v>0.02958914921967006</v>
+        <v>-0.009006025377888123</v>
       </c>
       <c r="E29">
-        <v>-0.03077076767157832</v>
+        <v>0.02751110722321506</v>
       </c>
       <c r="F29">
-        <v>-0.01681813864839277</v>
+        <v>0.03338805214799466</v>
       </c>
       <c r="G29">
-        <v>0.004250242644485853</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>-0.02903639505228928</v>
+      </c>
+      <c r="H29">
+        <v>-0.0514529038755159</v>
+      </c>
+      <c r="I29">
+        <v>-0.003548693289253784</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>-0.1146908137049293</v>
+        <v>-0.08903692943618277</v>
       </c>
       <c r="C30">
-        <v>0.02503277650447351</v>
+        <v>0.05190005986047646</v>
       </c>
       <c r="D30">
-        <v>0.02854031059579471</v>
+        <v>0.0370965234837759</v>
       </c>
       <c r="E30">
-        <v>-0.1112689439822221</v>
+        <v>0.03403296234913275</v>
       </c>
       <c r="F30">
-        <v>0.003676120808329722</v>
+        <v>0.1023513193098082</v>
       </c>
       <c r="G30">
-        <v>0.02011435882262551</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.01416753652528571</v>
+      </c>
+      <c r="H30">
+        <v>-0.01935201661244972</v>
+      </c>
+      <c r="I30">
+        <v>0.01056015797770257</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>-0.06733009525275757</v>
+        <v>-0.06263434793820061</v>
       </c>
       <c r="C31">
-        <v>0.01459510655567011</v>
+        <v>0.02220080525992733</v>
       </c>
       <c r="D31">
-        <v>0.01462154565366967</v>
+        <v>0.01135631833466172</v>
       </c>
       <c r="E31">
-        <v>0.01943095254811206</v>
+        <v>0.02277412135546538</v>
       </c>
       <c r="F31">
-        <v>-0.03689065188309187</v>
+        <v>0.001464334790969592</v>
       </c>
       <c r="G31">
-        <v>0.04367557022855484</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>-0.04084330050290607</v>
+      </c>
+      <c r="H31">
+        <v>-0.03108280078307453</v>
+      </c>
+      <c r="I31">
+        <v>-0.01256400177521481</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>-0.06321197047054436</v>
+        <v>-0.04240438360155065</v>
       </c>
       <c r="C32">
-        <v>0.0445632498706138</v>
+        <v>0.05362037855310064</v>
       </c>
       <c r="D32">
-        <v>0.01701409918357377</v>
+        <v>-0.01530255334397458</v>
       </c>
       <c r="E32">
-        <v>-0.1068480311977704</v>
+        <v>0.03360121028399414</v>
       </c>
       <c r="F32">
-        <v>0.006627786285116202</v>
+        <v>0.08550857806679663</v>
       </c>
       <c r="G32">
-        <v>0.0169391839377959</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>-0.01220117832407933</v>
+      </c>
+      <c r="H32">
+        <v>-0.0364376774837115</v>
+      </c>
+      <c r="I32">
+        <v>-0.0262691935646222</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>-0.06751442036879683</v>
+        <v>-0.05608421765258017</v>
       </c>
       <c r="C33">
-        <v>0.04882849238361593</v>
+        <v>0.05385664840843928</v>
       </c>
       <c r="D33">
-        <v>0.01177320711232823</v>
+        <v>0.01830048915088786</v>
       </c>
       <c r="E33">
-        <v>-0.07401645709446882</v>
+        <v>0.01445796808697451</v>
       </c>
       <c r="F33">
-        <v>-0.04364688741337477</v>
+        <v>0.07420725947652451</v>
       </c>
       <c r="G33">
-        <v>-0.009889108197055654</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>-0.03555988862474054</v>
+      </c>
+      <c r="H33">
+        <v>-0.03853074554985136</v>
+      </c>
+      <c r="I33">
+        <v>0.005859941815045559</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>-0.04873404469617886</v>
+        <v>-0.04408294610200864</v>
       </c>
       <c r="C34">
-        <v>0.02308248755267829</v>
+        <v>0.03421689417732733</v>
       </c>
       <c r="D34">
-        <v>0.002331873792952051</v>
+        <v>-0.004243675575332953</v>
       </c>
       <c r="E34">
-        <v>-0.02699921630606022</v>
+        <v>0.0177379726752026</v>
       </c>
       <c r="F34">
-        <v>0.006739180883499222</v>
+        <v>0.03078559361490775</v>
       </c>
       <c r="G34">
-        <v>0.006752700331729968</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.0004935227655254556</v>
+      </c>
+      <c r="H34">
+        <v>-0.01049715194206771</v>
+      </c>
+      <c r="I34">
+        <v>0.005201549316953034</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1715,45 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>-0.01375553305856511</v>
+        <v>-0.01604070214333669</v>
       </c>
       <c r="C36">
-        <v>0.00185442467531789</v>
+        <v>0.002961744891777628</v>
       </c>
       <c r="D36">
-        <v>0.007471850165134667</v>
+        <v>-0.004379612465416244</v>
       </c>
       <c r="E36">
-        <v>-0.0225405841784278</v>
+        <v>0.01113957299762052</v>
       </c>
       <c r="F36">
-        <v>-0.01460338789594053</v>
+        <v>0.0263855937139998</v>
       </c>
       <c r="G36">
-        <v>0.01010851458801897</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>-0.02396984165137749</v>
+      </c>
+      <c r="H36">
+        <v>-0.02971218159911158</v>
+      </c>
+      <c r="I36">
+        <v>0.005547761264383577</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1773,219 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>-0.05114776002286089</v>
+        <v>-0.03481581701650852</v>
       </c>
       <c r="C38">
-        <v>0.01736569857604092</v>
+        <v>0.01479615844663459</v>
       </c>
       <c r="D38">
-        <v>0.02531359136747136</v>
+        <v>-0.003431721940727001</v>
       </c>
       <c r="E38">
-        <v>-0.02286408967311666</v>
+        <v>0.01332199061079559</v>
       </c>
       <c r="F38">
-        <v>0.01161416116388648</v>
+        <v>0.04672145273497617</v>
       </c>
       <c r="G38">
-        <v>-0.02728575130866767</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>-0.02808337122129544</v>
+      </c>
+      <c r="H38">
+        <v>-0.0131639075338612</v>
+      </c>
+      <c r="I38">
+        <v>0.01229946276321149</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>-0.07374729181697993</v>
+        <v>-0.05661089573604527</v>
       </c>
       <c r="C39">
-        <v>0.02281982456811859</v>
+        <v>0.04571955093911222</v>
       </c>
       <c r="D39">
-        <v>0.005051346122836007</v>
+        <v>0.004863194002124782</v>
       </c>
       <c r="E39">
-        <v>-0.04235370092116181</v>
+        <v>0.01926901273716614</v>
       </c>
       <c r="F39">
-        <v>-0.0110884030414671</v>
+        <v>0.054631109430621</v>
       </c>
       <c r="G39">
-        <v>-0.005171935465778187</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>-0.01627362383733751</v>
+      </c>
+      <c r="H39">
+        <v>-0.001111718665594052</v>
+      </c>
+      <c r="I39">
+        <v>0.02827866538213371</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>-0.07639085477906671</v>
+        <v>-0.05584173527870496</v>
       </c>
       <c r="C40">
-        <v>0.04713325979803437</v>
+        <v>0.0429934818362635</v>
       </c>
       <c r="D40">
-        <v>0.009994203499892159</v>
+        <v>0.02061188850697079</v>
       </c>
       <c r="E40">
-        <v>-0.1064978689534783</v>
+        <v>0.02579287228101394</v>
       </c>
       <c r="F40">
-        <v>-0.01135270268213315</v>
+        <v>0.09350651168181702</v>
       </c>
       <c r="G40">
-        <v>-0.03388660412605283</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>-0.02396896199061154</v>
+      </c>
+      <c r="H40">
+        <v>-0.04931519915931676</v>
+      </c>
+      <c r="I40">
+        <v>-0.02698694330726071</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>-0.001991793691743153</v>
+        <v>-0.003922346781940352</v>
       </c>
       <c r="C41">
-        <v>0.02157370521161779</v>
+        <v>0.01226618519902758</v>
       </c>
       <c r="D41">
-        <v>0.02708948268384027</v>
+        <v>1.033961023971749e-05</v>
       </c>
       <c r="E41">
-        <v>-0.01210250665914427</v>
+        <v>0.01030485549146808</v>
       </c>
       <c r="F41">
-        <v>-0.03281100540839091</v>
+        <v>0.01289993925674036</v>
       </c>
       <c r="G41">
-        <v>0.00220177923489216</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>-0.03585541475563085</v>
+      </c>
+      <c r="H41">
+        <v>-0.03119137845650711</v>
+      </c>
+      <c r="I41">
+        <v>-0.02457667952493283</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B42">
-        <v>-0.1377005647284775</v>
+        <v>-0.2177139599983308</v>
       </c>
       <c r="C42">
-        <v>0.2355458077696339</v>
+        <v>0.275286007606997</v>
       </c>
       <c r="D42">
-        <v>-0.9206070756674201</v>
+        <v>0.04570902663836527</v>
       </c>
       <c r="E42">
-        <v>0.1018006360785348</v>
+        <v>-0.9066642358852647</v>
       </c>
       <c r="F42">
-        <v>-0.03374964812958369</v>
+        <v>-0.1542932585474319</v>
       </c>
       <c r="G42">
-        <v>0.1280998178847357</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>0.0007166777219028089</v>
+      </c>
+      <c r="H42">
+        <v>0.004155537809365095</v>
+      </c>
+      <c r="I42">
+        <v>-0.05312831183693086</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>-0.004047175719300768</v>
+        <v>-0.006759546081527666</v>
       </c>
       <c r="C43">
-        <v>0.02313846001693823</v>
+        <v>0.01500532583979355</v>
       </c>
       <c r="D43">
-        <v>0.01807336389286111</v>
+        <v>0.002371298716380704</v>
       </c>
       <c r="E43">
-        <v>-0.03496920156631513</v>
+        <v>0.01047203385846765</v>
       </c>
       <c r="F43">
-        <v>-0.0161099064476018</v>
+        <v>0.02729903105363123</v>
       </c>
       <c r="G43">
-        <v>0.01418612639722589</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>-0.02078338590770192</v>
+      </c>
+      <c r="H43">
+        <v>-0.03071036604127197</v>
+      </c>
+      <c r="I43">
+        <v>-0.015051646080566</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>-0.04069765188706488</v>
+        <v>-0.02817175063360964</v>
       </c>
       <c r="C44">
-        <v>0.05324036342544169</v>
+        <v>0.04384389068408023</v>
       </c>
       <c r="D44">
-        <v>0.01646603718838501</v>
+        <v>-0.002097744660010063</v>
       </c>
       <c r="E44">
-        <v>-0.1241861387243171</v>
+        <v>0.01238058260039271</v>
       </c>
       <c r="F44">
-        <v>-0.08513291731897012</v>
+        <v>0.1198147525256354</v>
       </c>
       <c r="G44">
-        <v>-0.02034538958514069</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>-0.06243380078244307</v>
+      </c>
+      <c r="H44">
+        <v>-0.1010898600804534</v>
+      </c>
+      <c r="I44">
+        <v>-0.0266989482652465</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +2005,103 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>-0.02953855250190881</v>
+        <v>-0.02587885024917798</v>
       </c>
       <c r="C46">
-        <v>0.02723383983788456</v>
+        <v>0.03505752379764474</v>
       </c>
       <c r="D46">
-        <v>0.03116649962153789</v>
+        <v>0.00261283914069012</v>
       </c>
       <c r="E46">
-        <v>-0.03290943446734105</v>
+        <v>0.03094329420469273</v>
       </c>
       <c r="F46">
-        <v>-0.03194320079710136</v>
+        <v>0.04623677183614763</v>
       </c>
       <c r="G46">
-        <v>0.007559214214620056</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>-0.02546312407298468</v>
+      </c>
+      <c r="H46">
+        <v>-0.05206952652748521</v>
+      </c>
+      <c r="I46">
+        <v>-0.001571615348570502</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>-0.09024746049212076</v>
+        <v>-0.09027503228391523</v>
       </c>
       <c r="C47">
-        <v>0.01380391842153121</v>
+        <v>0.0178328497252735</v>
       </c>
       <c r="D47">
-        <v>0.01517440691187657</v>
+        <v>0.005893315819390945</v>
       </c>
       <c r="E47">
-        <v>0.0221957023265816</v>
+        <v>0.0254903700626445</v>
       </c>
       <c r="F47">
-        <v>-0.0184520191831779</v>
+        <v>-0.01167547222252352</v>
       </c>
       <c r="G47">
-        <v>0.01704312888380576</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>-0.04071828919726135</v>
+      </c>
+      <c r="H47">
+        <v>-0.05362714460445858</v>
+      </c>
+      <c r="I47">
+        <v>-0.02297884379485236</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>-0.01901991252106919</v>
+        <v>-0.01933375636146497</v>
       </c>
       <c r="C48">
-        <v>0.02518965206483071</v>
+        <v>0.020097978311074</v>
       </c>
       <c r="D48">
-        <v>0.01597611510992117</v>
+        <v>-0.001191739385648785</v>
       </c>
       <c r="E48">
-        <v>-0.02956110176486142</v>
+        <v>0.015048441667201</v>
       </c>
       <c r="F48">
-        <v>-0.009129112118430394</v>
+        <v>0.02893531138282167</v>
       </c>
       <c r="G48">
-        <v>0.00139309567864902</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>-0.0152473870562688</v>
+      </c>
+      <c r="H48">
+        <v>-0.02237543206555549</v>
+      </c>
+      <c r="I48">
+        <v>-0.01205084977586489</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +2121,74 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>-0.0924175735794599</v>
+        <v>-0.08940183342798642</v>
       </c>
       <c r="C50">
-        <v>0.03362627331424872</v>
+        <v>0.03541982157075146</v>
       </c>
       <c r="D50">
-        <v>0.02508775272903897</v>
+        <v>-0.009626020436898437</v>
       </c>
       <c r="E50">
-        <v>0.01709550864748328</v>
+        <v>0.02617743985711268</v>
       </c>
       <c r="F50">
-        <v>-0.02289532152268062</v>
+        <v>-0.006244873099117704</v>
       </c>
       <c r="G50">
-        <v>0.04636609257047333</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>-0.0008730705289002125</v>
+      </c>
+      <c r="H50">
+        <v>-0.03595076158327489</v>
+      </c>
+      <c r="I50">
+        <v>0.002670681776413116</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>-0.05567702030410713</v>
+        <v>-0.03947670096848024</v>
       </c>
       <c r="C51">
-        <v>-0.01816108610357301</v>
+        <v>-0.005267361020737175</v>
       </c>
       <c r="D51">
-        <v>-0.002136163241208394</v>
+        <v>0.01246017800679952</v>
       </c>
       <c r="E51">
-        <v>-0.07958035908587727</v>
+        <v>0.008849584176883753</v>
       </c>
       <c r="F51">
-        <v>-0.0645039174265875</v>
+        <v>0.09694861019703865</v>
       </c>
       <c r="G51">
-        <v>0.0179692104537389</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>-0.05192182438688901</v>
+      </c>
+      <c r="H51">
+        <v>-0.05424405718475488</v>
+      </c>
+      <c r="I51">
+        <v>-0.02132778039746702</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2208,277 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>-0.1419585362229192</v>
+        <v>-0.1247647843459784</v>
       </c>
       <c r="C53">
-        <v>0.01729832688661678</v>
+        <v>0.03519077826104849</v>
       </c>
       <c r="D53">
-        <v>0.05137753939471761</v>
+        <v>0.007348937815158811</v>
       </c>
       <c r="E53">
-        <v>0.05080038408457111</v>
+        <v>0.05503123936561104</v>
       </c>
       <c r="F53">
-        <v>-0.01672372637100313</v>
+        <v>-0.04154200960345985</v>
       </c>
       <c r="G53">
-        <v>0.03547528828284315</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>-0.02156593811654916</v>
+      </c>
+      <c r="H53">
+        <v>0.002493381960181138</v>
+      </c>
+      <c r="I53">
+        <v>-0.03986834544285389</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>-0.02670262504298447</v>
+        <v>-0.02571780786680244</v>
       </c>
       <c r="C54">
-        <v>0.005255706502283261</v>
+        <v>0.002487173130458382</v>
       </c>
       <c r="D54">
-        <v>0.02239465083059062</v>
+        <v>-0.004724161399415628</v>
       </c>
       <c r="E54">
-        <v>-0.03452306639894257</v>
+        <v>0.02628767852733032</v>
       </c>
       <c r="F54">
-        <v>-0.04543682706961449</v>
+        <v>0.03458569102258358</v>
       </c>
       <c r="G54">
-        <v>-0.0145980909819651</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>-0.05032798194580376</v>
+      </c>
+      <c r="H54">
+        <v>-0.04376469855828102</v>
+      </c>
+      <c r="I54">
+        <v>-0.02872802694061966</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>-0.1035418104863996</v>
+        <v>-0.099887321370424</v>
       </c>
       <c r="C55">
-        <v>0.004738698048734706</v>
+        <v>0.02721455456944849</v>
       </c>
       <c r="D55">
-        <v>0.03785396503847543</v>
+        <v>-0.01056895370804276</v>
       </c>
       <c r="E55">
-        <v>0.01608241644880318</v>
+        <v>0.03693144947433446</v>
       </c>
       <c r="F55">
-        <v>0.04094745388559514</v>
+        <v>-0.02875537209778387</v>
       </c>
       <c r="G55">
-        <v>0.01204799534956718</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.009560176217147699</v>
+      </c>
+      <c r="H55">
+        <v>-0.008934626548312966</v>
+      </c>
+      <c r="I55">
+        <v>-0.01785146250580527</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>-0.1781943011333745</v>
+        <v>-0.1665159145536912</v>
       </c>
       <c r="C56">
-        <v>-0.01241359408890808</v>
+        <v>0.01096604057302736</v>
       </c>
       <c r="D56">
-        <v>0.08611188102507976</v>
+        <v>0.001255849343192989</v>
       </c>
       <c r="E56">
-        <v>0.1004367047607887</v>
+        <v>0.08834919063409714</v>
       </c>
       <c r="F56">
-        <v>0.06745949231695283</v>
+        <v>-0.08436804483445423</v>
       </c>
       <c r="G56">
-        <v>0.04708075947772371</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.03066528453022531</v>
+      </c>
+      <c r="H56">
+        <v>0.04612621589928688</v>
+      </c>
+      <c r="I56">
+        <v>-0.03389913156442188</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B57">
-        <v>-0.08784963765942289</v>
+        <v>-0.06555820154617305</v>
       </c>
       <c r="C57">
-        <v>0.0328976398039371</v>
+        <v>0.03548531606873005</v>
       </c>
       <c r="D57">
-        <v>0.03102530031596304</v>
+        <v>0.01745594108141066</v>
       </c>
       <c r="E57">
-        <v>-0.0436649860002231</v>
+        <v>0.01008452880506299</v>
       </c>
       <c r="F57">
-        <v>-0.0494657558668036</v>
+        <v>0.06539255992444518</v>
       </c>
       <c r="G57">
-        <v>0.0231840681891766</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>-0.02680115331158987</v>
+      </c>
+      <c r="H57">
+        <v>-0.03231695568713381</v>
+      </c>
+      <c r="I57">
+        <v>0.006196970420050483</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>-0.1849464340478934</v>
+        <v>-0.2073382249175552</v>
       </c>
       <c r="C58">
-        <v>0.03550566929326369</v>
+        <v>0.1000615210513962</v>
       </c>
       <c r="D58">
-        <v>-0.01753657014549766</v>
+        <v>0.08751183800515192</v>
       </c>
       <c r="E58">
-        <v>-0.1290299775761311</v>
+        <v>-0.002841649911289811</v>
       </c>
       <c r="F58">
-        <v>0.04511546315571829</v>
+        <v>0.2329085796119731</v>
       </c>
       <c r="G58">
-        <v>0.06995573954630561</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>0.1715531503146295</v>
+      </c>
+      <c r="H58">
+        <v>-0.3936185691171833</v>
+      </c>
+      <c r="I58">
+        <v>0.2223072664584504</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>-0.02272719594060477</v>
+        <v>-0.05114933822763297</v>
       </c>
       <c r="C59">
-        <v>-0.195882023617273</v>
+        <v>-0.1945982036244153</v>
       </c>
       <c r="D59">
-        <v>-0.005123077156698277</v>
+        <v>0.0199903495176338</v>
       </c>
       <c r="E59">
-        <v>-0.0645318003750226</v>
+        <v>-0.0201119726738915</v>
       </c>
       <c r="F59">
-        <v>-0.01293835729050666</v>
+        <v>0.07543504565012037</v>
       </c>
       <c r="G59">
-        <v>-0.00908186177954547</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>-0.001618151643419086</v>
+      </c>
+      <c r="H59">
+        <v>0.02508838821630058</v>
+      </c>
+      <c r="I59">
+        <v>-0.05988262144129845</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>-0.1960759867385672</v>
+        <v>-0.188288111282006</v>
       </c>
       <c r="C60">
-        <v>-0.0888051440535276</v>
+        <v>-0.0418757870015243</v>
       </c>
       <c r="D60">
-        <v>0.002019698540533005</v>
+        <v>0.04946480767404005</v>
       </c>
       <c r="E60">
-        <v>-0.1881332336040952</v>
+        <v>0.00690384259137655</v>
       </c>
       <c r="F60">
-        <v>-0.04339859145638238</v>
+        <v>0.2129895648800638</v>
       </c>
       <c r="G60">
-        <v>-0.01392222402116272</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>0.0676303548043143</v>
+      </c>
+      <c r="H60">
+        <v>0.2748304203553791</v>
+      </c>
+      <c r="I60">
+        <v>0.09834937713118302</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>-0.04472672788222228</v>
+        <v>-0.03649194523026068</v>
       </c>
       <c r="C61">
-        <v>0.01468035632867123</v>
+        <v>0.02964471941035714</v>
       </c>
       <c r="D61">
-        <v>0.0001515842604418875</v>
+        <v>-0.0009194650064953227</v>
       </c>
       <c r="E61">
-        <v>-0.03572073398932516</v>
+        <v>0.008128887720738076</v>
       </c>
       <c r="F61">
-        <v>-0.003754401128997423</v>
+        <v>0.03762419350566207</v>
       </c>
       <c r="G61">
-        <v>-0.006637520704202419</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>-0.01001506441557254</v>
+      </c>
+      <c r="H61">
+        <v>0.004285194592712146</v>
+      </c>
+      <c r="I61">
+        <v>0.03949933264303188</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2498,219 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>-0.04358587350810502</v>
+        <v>-0.03128605841809624</v>
       </c>
       <c r="C63">
-        <v>0.01463357523764642</v>
+        <v>0.020613069148561</v>
       </c>
       <c r="D63">
-        <v>0.01709044603864232</v>
+        <v>0.001663069473363213</v>
       </c>
       <c r="E63">
-        <v>-0.04044648512582721</v>
+        <v>0.01505273837102957</v>
       </c>
       <c r="F63">
-        <v>-0.01798598759142494</v>
+        <v>0.0283044391564015</v>
       </c>
       <c r="G63">
-        <v>0.01182649717976285</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>-0.01162810033269844</v>
+      </c>
+      <c r="H63">
+        <v>-0.04979025242734812</v>
+      </c>
+      <c r="I63">
+        <v>-0.03525811333018686</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>-0.07464429832393484</v>
+        <v>-0.05781411197812749</v>
       </c>
       <c r="C64">
-        <v>0.0561256056603399</v>
+        <v>0.04781000716093833</v>
       </c>
       <c r="D64">
-        <v>0.06009266415076366</v>
+        <v>-0.01455295601348041</v>
       </c>
       <c r="E64">
-        <v>-0.05177191943948523</v>
+        <v>0.04610666678429147</v>
       </c>
       <c r="F64">
-        <v>-0.03202509324099118</v>
+        <v>0.04926400765585962</v>
       </c>
       <c r="G64">
-        <v>-0.0611431458503999</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>-0.05473333984898529</v>
+      </c>
+      <c r="H64">
+        <v>0.0108354385965136</v>
+      </c>
+      <c r="I64">
+        <v>-0.03806451408503762</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>-0.02029689185674586</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>0.01262623007460578</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>-0.006417522751682858</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>0.007398538711919049</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>0.0006680466084909266</v>
       </c>
       <c r="G65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>0.02146442285848435</v>
+      </c>
+      <c r="H65">
+        <v>0.004426195437053363</v>
+      </c>
+      <c r="I65">
+        <v>0.01698383662172337</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>-0.08795700358065703</v>
+        <v>-0.06754469802620243</v>
       </c>
       <c r="C66">
-        <v>0.03767793729845302</v>
+        <v>0.05633689467771016</v>
       </c>
       <c r="D66">
-        <v>0.04039986507450356</v>
+        <v>0.01362536634947314</v>
       </c>
       <c r="E66">
-        <v>-0.07929622835018976</v>
+        <v>0.04959236846902214</v>
       </c>
       <c r="F66">
-        <v>-0.03215152605848366</v>
+        <v>0.06854158257112478</v>
       </c>
       <c r="G66">
-        <v>-0.01210510013342606</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>-0.01433108965480609</v>
+      </c>
+      <c r="H66">
+        <v>0.0005601826737934996</v>
+      </c>
+      <c r="I66">
+        <v>0.03015514379143058</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>-0.06177171198895836</v>
+        <v>-0.04729046549818085</v>
       </c>
       <c r="C67">
-        <v>-0.01038344389636083</v>
+        <v>-0.003983390659883518</v>
       </c>
       <c r="D67">
-        <v>0.01340027043416284</v>
+        <v>0.001960689391961662</v>
       </c>
       <c r="E67">
-        <v>-0.0160911776045239</v>
+        <v>0.009392686939571395</v>
       </c>
       <c r="F67">
-        <v>0.00660861515618738</v>
+        <v>0.03643945655629175</v>
       </c>
       <c r="G67">
-        <v>-0.02338686468767885</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>-0.03524646034374442</v>
+      </c>
+      <c r="H67">
+        <v>0.007800671824575117</v>
+      </c>
+      <c r="I67">
+        <v>0.03770468186105051</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>-0.03256633406079015</v>
+        <v>-0.059834677752681</v>
       </c>
       <c r="C68">
-        <v>-0.2441247200499103</v>
+        <v>-0.2327671972513266</v>
       </c>
       <c r="D68">
-        <v>-0.02724250168467557</v>
+        <v>0.01944719917856329</v>
       </c>
       <c r="E68">
-        <v>-0.04864683859703121</v>
+        <v>-0.03788987453812152</v>
       </c>
       <c r="F68">
-        <v>-0.02478746534195931</v>
+        <v>0.05742785522580931</v>
       </c>
       <c r="G68">
-        <v>0.01616827851901562</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>0.004622963846203311</v>
+      </c>
+      <c r="H68">
+        <v>0.0137118405695688</v>
+      </c>
+      <c r="I68">
+        <v>-0.1599746460135799</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>-0.07042583851909517</v>
+        <v>-0.07205690814844469</v>
       </c>
       <c r="C69">
-        <v>0.0178197513507469</v>
+        <v>0.02079308052766733</v>
       </c>
       <c r="D69">
-        <v>0.02525619975739254</v>
+        <v>0.006329190069519418</v>
       </c>
       <c r="E69">
-        <v>0.01427763876050638</v>
+        <v>0.03130590542330586</v>
       </c>
       <c r="F69">
-        <v>-0.01547228382248196</v>
+        <v>-0.002698768215540214</v>
       </c>
       <c r="G69">
-        <v>0.02392034376805513</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>-0.02488803764993551</v>
+      </c>
+      <c r="H69">
+        <v>-0.02669452972193988</v>
+      </c>
+      <c r="I69">
+        <v>0.002096235506186819</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2730,248 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>-0.0235971625713493</v>
+        <v>-0.05762804071667912</v>
       </c>
       <c r="C71">
-        <v>-0.2788251069407055</v>
+        <v>-0.2499276336337379</v>
       </c>
       <c r="D71">
-        <v>-0.03241916898140796</v>
+        <v>0.02448037410605198</v>
       </c>
       <c r="E71">
-        <v>-0.08272545294802641</v>
+        <v>-0.06148075235195458</v>
       </c>
       <c r="F71">
-        <v>-0.0325826854857193</v>
+        <v>0.08263973582364401</v>
       </c>
       <c r="G71">
-        <v>0.01243550543402733</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>-0.01457048643297692</v>
+      </c>
+      <c r="H71">
+        <v>0.02307737092742033</v>
+      </c>
+      <c r="I71">
+        <v>-0.133568646528526</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>-0.1226512845312606</v>
+        <v>-0.1249871887449674</v>
       </c>
       <c r="C72">
-        <v>-0.003028313414083868</v>
+        <v>0.03465548065354591</v>
       </c>
       <c r="D72">
-        <v>0.04808453341980919</v>
+        <v>0.006588326489743747</v>
       </c>
       <c r="E72">
-        <v>-0.08807776257863571</v>
+        <v>0.06331470454416738</v>
       </c>
       <c r="F72">
-        <v>0.02369941289839721</v>
+        <v>0.08382204993501942</v>
       </c>
       <c r="G72">
-        <v>0.006629231892396601</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>0.03930934255531623</v>
+      </c>
+      <c r="H72">
+        <v>0.02002494538869203</v>
+      </c>
+      <c r="I72">
+        <v>0.08925402452503001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>-0.297670985209071</v>
+        <v>-0.2698371453088643</v>
       </c>
       <c r="C73">
-        <v>-0.1664963933870474</v>
+        <v>-0.06446563238929005</v>
       </c>
       <c r="D73">
-        <v>-0.06528638799412499</v>
+        <v>0.08929609450143536</v>
       </c>
       <c r="E73">
-        <v>-0.335802982867053</v>
+        <v>-0.03817856192706069</v>
       </c>
       <c r="F73">
-        <v>-0.001037626741994134</v>
+        <v>0.3193733344297138</v>
       </c>
       <c r="G73">
-        <v>-0.05157195669965609</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>0.170180224044609</v>
+      </c>
+      <c r="H73">
+        <v>0.4658230733782999</v>
+      </c>
+      <c r="I73">
+        <v>0.2857990208634532</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>-0.1617146179897769</v>
+        <v>-0.150132034223705</v>
       </c>
       <c r="C74">
-        <v>0.006941508442187801</v>
+        <v>0.02696387888219244</v>
       </c>
       <c r="D74">
-        <v>0.0478060644602093</v>
+        <v>0.0142639343099696</v>
       </c>
       <c r="E74">
-        <v>0.03128594388507073</v>
+        <v>0.05197459986527469</v>
       </c>
       <c r="F74">
-        <v>0.02740817215787125</v>
+        <v>-0.05405010477669542</v>
       </c>
       <c r="G74">
-        <v>0.07582647625820915</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.01863524438810913</v>
+      </c>
+      <c r="H74">
+        <v>0.0312449768057088</v>
+      </c>
+      <c r="I74">
+        <v>-0.02294215112878405</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>-0.2353770245654332</v>
+        <v>-0.2411779728392017</v>
       </c>
       <c r="C75">
-        <v>0.0089025474154374</v>
+        <v>0.02803172809946084</v>
       </c>
       <c r="D75">
-        <v>0.07563631774565505</v>
+        <v>0.02942901046986491</v>
       </c>
       <c r="E75">
-        <v>0.128437851025323</v>
+        <v>0.1076832472282497</v>
       </c>
       <c r="F75">
-        <v>0.001695635082202339</v>
+        <v>-0.1416243991408494</v>
       </c>
       <c r="G75">
-        <v>0.0575637116354465</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>-0.003764083969379398</v>
+      </c>
+      <c r="H75">
+        <v>0.02483228490814713</v>
+      </c>
+      <c r="I75">
+        <v>-0.08102205019868947</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>-0.2466465596785258</v>
+        <v>-0.2641919400382272</v>
       </c>
       <c r="C76">
-        <v>-0.01046597387985822</v>
+        <v>0.01322726695371812</v>
       </c>
       <c r="D76">
-        <v>0.1116181750352172</v>
+        <v>-0.010661540962287</v>
       </c>
       <c r="E76">
-        <v>0.1327990931805735</v>
+        <v>0.1328111406397302</v>
       </c>
       <c r="F76">
-        <v>0.05148990900322549</v>
+        <v>-0.1870856955134552</v>
       </c>
       <c r="G76">
-        <v>0.0643346469298678</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0.05595954508002916</v>
+      </c>
+      <c r="H76">
+        <v>0.05139239825195852</v>
+      </c>
+      <c r="I76">
+        <v>-0.05142258640249641</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>-0.1354686148466032</v>
+        <v>-0.1245229853920174</v>
       </c>
       <c r="C77">
-        <v>0.06632976755623454</v>
+        <v>0.07611762717964617</v>
       </c>
       <c r="D77">
-        <v>-0.03454746087130667</v>
+        <v>0.006133064932913357</v>
       </c>
       <c r="E77">
-        <v>-0.145970245421269</v>
+        <v>-0.02771326805320201</v>
       </c>
       <c r="F77">
-        <v>-0.008272902059242419</v>
+        <v>0.1563518347929677</v>
       </c>
       <c r="G77">
-        <v>-0.05961986658002576</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.004387245493225351</v>
+      </c>
+      <c r="H77">
+        <v>-0.2151503225943071</v>
+      </c>
+      <c r="I77">
+        <v>-0.2542643893675009</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>-0.08528939401856749</v>
+        <v>-0.07512119343242456</v>
       </c>
       <c r="C78">
-        <v>0.0556622358677659</v>
+        <v>0.07830601765594757</v>
       </c>
       <c r="D78">
-        <v>-0.00892036973498017</v>
+        <v>-0.00653896125152088</v>
       </c>
       <c r="E78">
-        <v>-0.05359309914337935</v>
+        <v>0.01507855756242132</v>
       </c>
       <c r="F78">
-        <v>-0.01144749798387753</v>
+        <v>0.07110868799509663</v>
       </c>
       <c r="G78">
-        <v>0.006636385591530085</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>-0.01046052179530593</v>
+      </c>
+      <c r="H78">
+        <v>-0.02027840210638406</v>
+      </c>
+      <c r="I78">
+        <v>-0.03326405190010456</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +2991,74 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>-0.05726783696905996</v>
+        <v>-0.1381162915488619</v>
       </c>
       <c r="C80">
-        <v>0.0252662906235196</v>
+        <v>-0.04794672126089183</v>
       </c>
       <c r="D80">
-        <v>-0.08710816882397741</v>
+        <v>-0.9743230794182625</v>
       </c>
       <c r="E80">
-        <v>0.06096356515855646</v>
+        <v>-0.04870616283630924</v>
       </c>
       <c r="F80">
-        <v>0.6109451883627699</v>
+        <v>0.0453924114993921</v>
       </c>
       <c r="G80">
-        <v>-0.7428271086842972</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>-0.04621358738292354</v>
+      </c>
+      <c r="H80">
+        <v>0.04973103122133735</v>
+      </c>
+      <c r="I80">
+        <v>0.03699261983760917</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>-0.1634999532178935</v>
+        <v>-0.1797571566140998</v>
       </c>
       <c r="C81">
-        <v>-0.005617549091717891</v>
+        <v>0.003538607412592456</v>
       </c>
       <c r="D81">
-        <v>0.06198746934560798</v>
+        <v>0.008253766406697399</v>
       </c>
       <c r="E81">
-        <v>0.1599487560414232</v>
+        <v>0.08374425817136655</v>
       </c>
       <c r="F81">
-        <v>0.04553388584197612</v>
+        <v>-0.1558015880726977</v>
       </c>
       <c r="G81">
-        <v>0.08603771158725808</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.03095379372137572</v>
+      </c>
+      <c r="H81">
+        <v>0.01290571372802143</v>
+      </c>
+      <c r="I81">
+        <v>-0.05585709390659309</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +3078,45 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>-0.09422592965614053</v>
+        <v>-0.06951062072691683</v>
       </c>
       <c r="C83">
-        <v>0.06994572780200706</v>
+        <v>0.05721778844986606</v>
       </c>
       <c r="D83">
-        <v>-0.06424408351976391</v>
+        <v>0.01310539643595635</v>
       </c>
       <c r="E83">
-        <v>-0.01656822943054758</v>
+        <v>-0.03360317345732997</v>
       </c>
       <c r="F83">
-        <v>-0.063962548404043</v>
+        <v>0.04383878571992374</v>
       </c>
       <c r="G83">
-        <v>-0.00366067072846317</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>-0.05857022894655971</v>
+      </c>
+      <c r="H83">
+        <v>-0.0272806096095849</v>
+      </c>
+      <c r="I83">
+        <v>-0.02435815065163268</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +3136,335 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>-0.2358099703947996</v>
+        <v>-0.2497387866653754</v>
       </c>
       <c r="C85">
-        <v>0.06206460811023423</v>
+        <v>0.05291162426536539</v>
       </c>
       <c r="D85">
-        <v>0.07320842580907039</v>
+        <v>0.008054294225179271</v>
       </c>
       <c r="E85">
-        <v>0.1677313026040967</v>
+        <v>0.1038082442062929</v>
       </c>
       <c r="F85">
-        <v>0.04805787551411587</v>
+        <v>-0.1906109935762538</v>
       </c>
       <c r="G85">
-        <v>0.05017215525008148</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.0121998215136814</v>
+      </c>
+      <c r="H85">
+        <v>-0.01887425797283463</v>
+      </c>
+      <c r="I85">
+        <v>-0.05699060011718916</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>-0.0400038626325695</v>
+        <v>-0.02446927193320214</v>
       </c>
       <c r="C86">
-        <v>0.05789018047810422</v>
+        <v>0.06020471092442623</v>
       </c>
       <c r="D86">
-        <v>0.01941187244090849</v>
+        <v>-0.0009421635185435304</v>
       </c>
       <c r="E86">
-        <v>-0.05963785414788275</v>
+        <v>0.01664253454280564</v>
       </c>
       <c r="F86">
-        <v>0.001844288742273375</v>
+        <v>0.06366350390957173</v>
       </c>
       <c r="G86">
-        <v>0.009282880574200705</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>-0.006661059735018117</v>
+      </c>
+      <c r="H86">
+        <v>-0.0666889489530778</v>
+      </c>
+      <c r="I86">
+        <v>-0.0297899692711536</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>-0.02789774906457552</v>
+        <v>-0.03254424774713034</v>
       </c>
       <c r="C87">
-        <v>-0.05473104685751867</v>
+        <v>-0.009352045276211519</v>
       </c>
       <c r="D87">
-        <v>-0.003647727566920598</v>
+        <v>0.001565136108429441</v>
       </c>
       <c r="E87">
-        <v>-0.0972808768706228</v>
+        <v>0.003414205468603308</v>
       </c>
       <c r="F87">
-        <v>0.01645528667654595</v>
+        <v>0.1004239093022478</v>
       </c>
       <c r="G87">
-        <v>0.01235068459294103</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>0.02463158218107105</v>
+      </c>
+      <c r="H87">
+        <v>-0.01402915211213188</v>
+      </c>
+      <c r="I87">
+        <v>0.01012443091685581</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>-0.03856799495031065</v>
+        <v>-0.03076981427863794</v>
       </c>
       <c r="C88">
-        <v>0.03232796529534981</v>
+        <v>0.01907507788602796</v>
       </c>
       <c r="D88">
-        <v>0.006627713493189176</v>
+        <v>-0.009898485717833756</v>
       </c>
       <c r="E88">
-        <v>0.01007300055420408</v>
+        <v>0.01120664784113422</v>
       </c>
       <c r="F88">
-        <v>0.008213538433193189</v>
+        <v>-0.0159430404121692</v>
       </c>
       <c r="G88">
-        <v>0.00804324757790453</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>-0.03878260178374728</v>
+      </c>
+      <c r="H88">
+        <v>-0.03531235683015196</v>
+      </c>
+      <c r="I88">
+        <v>0.01939111414031653</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>-0.03573388435698373</v>
+        <v>-0.09350441955466793</v>
       </c>
       <c r="C89">
-        <v>-0.3834474608895731</v>
+        <v>-0.3803490330414377</v>
       </c>
       <c r="D89">
-        <v>-0.1043498238389924</v>
+        <v>0.04999361212857831</v>
       </c>
       <c r="E89">
-        <v>-0.00257134226120552</v>
+        <v>-0.08532964657708997</v>
       </c>
       <c r="F89">
-        <v>-0.03323374686604284</v>
+        <v>0.04071753723500032</v>
       </c>
       <c r="G89">
-        <v>0.007794624648438629</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>-0.03644796558158412</v>
+      </c>
+      <c r="H89">
+        <v>-0.0510493834448779</v>
+      </c>
+      <c r="I89">
+        <v>-0.2479514680364647</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>-0.02974656911496271</v>
+        <v>-0.06398299647728714</v>
       </c>
       <c r="C90">
-        <v>-0.3011518957729448</v>
+        <v>-0.3238289266746853</v>
       </c>
       <c r="D90">
-        <v>-0.05718461438272958</v>
+        <v>0.02386972954277919</v>
       </c>
       <c r="E90">
-        <v>-0.04939758811518855</v>
+        <v>-0.0696603007069557</v>
       </c>
       <c r="F90">
-        <v>-0.04452319449391903</v>
+        <v>0.04036367447239454</v>
       </c>
       <c r="G90">
-        <v>0.005441914308035037</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>-0.0230453351760584</v>
+      </c>
+      <c r="H90">
+        <v>-0.007127865929226984</v>
+      </c>
+      <c r="I90">
+        <v>-0.2170418152388768</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>-0.2745251131313414</v>
+        <v>-0.2899160181422578</v>
       </c>
       <c r="C91">
-        <v>0.04788037509630844</v>
+        <v>0.04915504142706988</v>
       </c>
       <c r="D91">
-        <v>0.07636894619217977</v>
+        <v>0.01575849593480751</v>
       </c>
       <c r="E91">
-        <v>0.276320468342186</v>
+        <v>0.09568269239775139</v>
       </c>
       <c r="F91">
-        <v>0.06406721161934174</v>
+        <v>-0.2814317568634773</v>
       </c>
       <c r="G91">
-        <v>0.03491923252173377</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.02738465336787959</v>
+      </c>
+      <c r="H91">
+        <v>0.01676979395742834</v>
+      </c>
+      <c r="I91">
+        <v>-0.09291369448212708</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>-0.06370499968632684</v>
+        <v>-0.1279082537495068</v>
       </c>
       <c r="C92">
-        <v>-0.4022531079272449</v>
+        <v>-0.4180352444673959</v>
       </c>
       <c r="D92">
-        <v>-0.1692599320907219</v>
+        <v>0.006526459443267383</v>
       </c>
       <c r="E92">
-        <v>0.09535696866980896</v>
+        <v>-0.113072290105183</v>
       </c>
       <c r="F92">
-        <v>0.08765665405582784</v>
+        <v>-0.1201547519514604</v>
       </c>
       <c r="G92">
-        <v>-0.0368835724928377</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>-0.08496603472768617</v>
+      </c>
+      <c r="H92">
+        <v>-0.434871497447213</v>
+      </c>
+      <c r="I92">
+        <v>0.6444991542358663</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>-0.02165464804226902</v>
+        <v>-0.07431672355984058</v>
       </c>
       <c r="C93">
-        <v>-0.3675775575678964</v>
+        <v>-0.3893559520708008</v>
       </c>
       <c r="D93">
-        <v>-0.09045462602684942</v>
+        <v>0.0426152586861336</v>
       </c>
       <c r="E93">
-        <v>0.02691222699035824</v>
+        <v>-0.1096795226043329</v>
       </c>
       <c r="F93">
-        <v>0.006913641823461518</v>
+        <v>0.01156742319480765</v>
       </c>
       <c r="G93">
-        <v>-0.02480808275426383</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>-0.03587838215803635</v>
+      </c>
+      <c r="H93">
+        <v>0.02281167743331255</v>
+      </c>
+      <c r="I93">
+        <v>-0.1476626198742414</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>-0.2723499774127996</v>
+        <v>-0.3088052646510719</v>
       </c>
       <c r="C94">
-        <v>-0.08252890098463382</v>
+        <v>-0.03715937346755183</v>
       </c>
       <c r="D94">
-        <v>0.05108920337479792</v>
+        <v>0.04308534121591082</v>
       </c>
       <c r="E94">
-        <v>0.3661260962020428</v>
+        <v>0.1282151685381715</v>
       </c>
       <c r="F94">
-        <v>0.2872548666217886</v>
+        <v>-0.3433623470941979</v>
       </c>
       <c r="G94">
-        <v>0.2784767984427769</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0.2070747811439508</v>
+      </c>
+      <c r="H94">
+        <v>-0.1191332988202627</v>
+      </c>
+      <c r="I94">
+        <v>-0.02317568512626909</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>-0.1878464076072178</v>
+        <v>-0.134195649300868</v>
       </c>
       <c r="C95">
-        <v>-0.006493105954808506</v>
+        <v>0.04136281557267006</v>
       </c>
       <c r="D95">
-        <v>0.002947683137758862</v>
+        <v>0.09611667582918763</v>
       </c>
       <c r="E95">
-        <v>0.3616844585454669</v>
+        <v>0.03906989526780339</v>
       </c>
       <c r="F95">
-        <v>-0.6777555089646913</v>
+        <v>-0.07957010077115806</v>
       </c>
       <c r="G95">
-        <v>-0.5246267799922901</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>-0.8967490632208178</v>
+      </c>
+      <c r="H95">
+        <v>0.159099357173536</v>
+      </c>
+      <c r="I95">
+        <v>0.1181411643449299</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3484,16 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3513,45 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>-0.2269570497919646</v>
+        <v>-0.2080087436925263</v>
       </c>
       <c r="C98">
-        <v>-0.1040716385471061</v>
+        <v>-0.05185768257607142</v>
       </c>
       <c r="D98">
-        <v>-0.03463974263475997</v>
+        <v>0.06275419723066049</v>
       </c>
       <c r="E98">
-        <v>-0.094129282784383</v>
+        <v>-0.03122925038545273</v>
       </c>
       <c r="F98">
-        <v>-0.04938839903708016</v>
+        <v>0.1698760449913297</v>
       </c>
       <c r="G98">
-        <v>0.006585449646030913</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>0.08087641056426428</v>
+      </c>
+      <c r="H98">
+        <v>0.3146828082125805</v>
+      </c>
+      <c r="I98">
+        <v>0.1646343493673697</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3571,16 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,79 +3600,103 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>-0.02376125468240118</v>
+        <v>-0.0181327064985112</v>
       </c>
       <c r="C101">
-        <v>0.02551176447205983</v>
+        <v>0.02899285967959837</v>
       </c>
       <c r="D101">
-        <v>0.03093548228679415</v>
+        <v>-0.004935173465283126</v>
       </c>
       <c r="E101">
-        <v>-0.03161756404260455</v>
+        <v>0.03509646619592027</v>
       </c>
       <c r="F101">
-        <v>-0.01661092962608511</v>
+        <v>0.06219211895116242</v>
       </c>
       <c r="G101">
-        <v>0.004071933541122899</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>-0.01438100208529458</v>
+      </c>
+      <c r="H101">
+        <v>-0.1151287786129283</v>
+      </c>
+      <c r="I101">
+        <v>0.05824150530859228</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>-0.1128367885199409</v>
+        <v>-0.1205967674946133</v>
       </c>
       <c r="C102">
-        <v>0.02249464329953828</v>
+        <v>0.02120078738107241</v>
       </c>
       <c r="D102">
-        <v>0.04255053331710626</v>
+        <v>-0.002282134011426541</v>
       </c>
       <c r="E102">
-        <v>0.09319431118540274</v>
+        <v>0.05593335439596357</v>
       </c>
       <c r="F102">
-        <v>0.01390507870429008</v>
+        <v>-0.1008085830649257</v>
       </c>
       <c r="G102">
-        <v>-0.009494273062129526</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>-0.01201104605342602</v>
+      </c>
+      <c r="H102">
+        <v>0.01858342059953464</v>
+      </c>
+      <c r="I102">
+        <v>-0.05994999590571635</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B103">
-        <v>-0.01418050337832696</v>
+        <v>-0.03007082162137597</v>
       </c>
       <c r="C103">
-        <v>0.004902683817700682</v>
+        <v>0.007165797785981876</v>
       </c>
       <c r="D103">
-        <v>0.01551307400196823</v>
+        <v>-0.008551201401728738</v>
       </c>
       <c r="E103">
-        <v>0.02383351943322409</v>
+        <v>0.02069959278261612</v>
       </c>
       <c r="F103">
-        <v>0.002384294988044527</v>
+        <v>-0.02741279269622543</v>
       </c>
       <c r="G103">
-        <v>0.01128534698045752</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>-0.01075639428259465</v>
+      </c>
+      <c r="H103">
+        <v>-0.01093069470284828</v>
+      </c>
+      <c r="I103">
+        <v>-0.02521915710509595</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +3714,12 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
